--- a/medicine/Enfance/Tui_Sutherland/Tui_Sutherland.xlsx
+++ b/medicine/Enfance/Tui_Sutherland/Tui_Sutherland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tui Tamara Sutherland, née le 31 juillet 1978 à Caracas au Venezuela, est une femme de lettres américaine. Elle écrit sous plusieurs noms de plume (Erin Hunter, Rob Kidd, Heather Williams, Tui T. Sutherland et Tamara Summers). Elle est l'autrice de plusieurs livres et séries et participe notamment à l'écriture de La Guerre des clans, série sur les chats sauvages traduite en français ainsi que Les Royaumes de Feu, série sur les dragons traduite également en français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tui T. Sutherland a grandi au Caracas, au Asuncion, à Miami, au New Jersey et dans la République dominicaine (Santo Domingo). Elle a également vécu à New York et vit actuellement à Watertown (Massachusetts) avec son époux Adam, ses deux enfants et son chien. Ayant été exposée à une variété de cultures et de traditions religieuses en grandissant, l'éventail d'idées explorées dans ses livres emprunte à ses expériences de vie à travers le monde et de voyages fréquents[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tui T. Sutherland a grandi au Caracas, au Asuncion, à Miami, au New Jersey et dans la République dominicaine (Santo Domingo). Elle a également vécu à New York et vit actuellement à Watertown (Massachusetts) avec son époux Adam, ses deux enfants et son chien. Ayant été exposée à une variété de cultures et de traditions religieuses en grandissant, l'éventail d'idées explorées dans ses livres emprunte à ses expériences de vie à travers le monde et de voyages fréquents.
 Les lieux qu'elle a visités ont souvent inspiré des lieux des Royaumes de Feu tels que les Grottes de Waitomo en Nouvelle-Zélande et le Palais d'Ambre en Inde. Sutherland a commencé sa carrière en tant qu'éditrice avant de décider de quitter son emploi de jour et d'écrire des livres pour gagner sa vie.
 </t>
         </is>
@@ -545,55 +559,451 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Glitter Tattoo
-(en) Monster Party (with glitter tattoos), 2000
+          <t>Série Glitter Tattoo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Monster Party (with glitter tattoos), 2000
 (en) Silly Creepy Crawlies (with glitter tattoos), 2000
-(en) Glittering Galaxies: A Trip Through the Stars (with glitter tattoos), 2001
-Série Mo and Ella
-(en) Meet Mo and Ella, 2001
-(en) Fun with Mo and Ella, 2002
-Série Avatars
-(fr) So This Is How It Ends, 2006
+(en) Glittering Galaxies: A Trip Through the Stars (with glitter tattoos), 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Mo and Ella</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Meet Mo and Ella, 2001
+(en) Fun with Mo and Ella, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Avatars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(fr) So This Is How It Ends, 2006
 (fr) Shadow Falling, 2007
-(en) Kingdom Of Twilight, 2008
-Univers La Guerre des clans
-Les ouvrages sont parus sous le pseudonyme collectif Erin Hunter.
-Guides
-(en) Secrets of the Clans, 2007
+(en) Kingdom Of Twilight, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Univers La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ouvrages sont parus sous le pseudonyme collectif Erin Hunter.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Univers La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Guides</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Secrets of the Clans, 2007
  (en) Code of the Clans, 2009
-(en) Battles of the Clans, 2010
-Univers La Quête des ours
-Les ouvrages sont parus sous le pseudonyme collectif Erin Hunter.
-Cycle I
-L'aventure commence, Pocket Jeunesse, 2013 ((en) The Quest Begins, 2008)
+(en) Battles of the Clans, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Univers La Quête des ours</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ouvrages sont parus sous le pseudonyme collectif Erin Hunter.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Univers La Quête des ours</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cycle I</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L'aventure commence, Pocket Jeunesse, 2013 ((en) The Quest Begins, 2008)
  Le Géant de feu, Pocket Jeunesse, 2014 ((en) Smoke Mountain, 2009)
- Le Feu du ciel, Pocket Jeunesse, 2015 ((en) Fire in the Sky, 2010)
-Cycle II
- La Mer qui fond, Pocket Jeunesse, 2016 ((en) The Melting Sea, 2012)
-Série Pirates of the Caribbean: Legends of the Brethren Court
-(en) The Caribbean, 2008
+ Le Feu du ciel, Pocket Jeunesse, 2015 ((en) Fire in the Sky, 2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Univers La Quête des ours</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cycle II</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> La Mer qui fond, Pocket Jeunesse, 2016 ((en) The Melting Sea, 2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Série Pirates of the Caribbean: Legends of the Brethren Court</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(en) The Caribbean, 2008
 (en) Rising In The East, 2008
 (en) The Turning Tide, 2009
-(en) Wild Waters, 2009
-Série Pirates of the Caribbean: At World's End
-(en) Pirates of the Caribbean: At World's End, 2007
+(en) Wild Waters, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Série Pirates of the Caribbean: At World's End</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(en) Pirates of the Caribbean: At World's End, 2007
 (en) Pirates of the Caribbean: At World’s End: The Movie Storybook, 2007
 (en) Pirates of the Caribbean: At World’s End: Force of Will, 2007
 (en) Pirates of the Caribbean: At World’s End: The Mystic’s Journey, 2007
 (en) Pirates of the Caribbean: At World’s End: Singapore!, 2007
-(en) Pirates of the Caribbean: At World’s End: Saving Jack Sparrow, 2007
-Série Pet Trouble
-(en) Pet Trouble-Runaway Retriever, 2009
+(en) Pirates of the Caribbean: At World’s End: Saving Jack Sparrow, 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Série Pet Trouble</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(en) Pet Trouble-Runaway Retriever, 2009
 (en) Pet Trouble-Loudest Beagle on the Block, 2009
 (en) Pet Trouble-Mud-Puddle Poodle, 2009
 (en) Pet Trouble-Bulldog Won't Budge, 2009
 (en) Pet Trouble-Oh No, Newf!, 2010
 (en) Pet Trouble-Smarty-Pants Sheltie, 2010
 (en) Pet Trouble-Bad to the Bone Boxer, 2010
-(en) Pet Trouble-Dachshund Disaster, 2010
-Univers Les Royaumes de feu
-Série Les Royaumes de feu
-Les Royaumes de feu est une série best-seller où dans chaque livre,l’histoire nous est racontée par des protagonistes différents, ceux-ci représentés sur les couvertures.
+(en) Pet Trouble-Dachshund Disaster, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Univers Les Royaumes de feu</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Série Les Royaumes de feu</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Les Royaumes de feu est une série best-seller où dans chaque livre,l’histoire nous est racontée par des protagonistes différents, ceux-ci représentés sur les couvertures.
 Cycle I : La Prophétie des dragonnets
 Dans ce cycle, on apprend qu’il y a une guerre et que de malheureux problèmes courent à Pyrrhia. Les dragonnets du destin vont réaliser des actes héroïques pour le sauver.
 La Prophétie, Gallimard Jeunesse, 2015 ((en) The Dragonet Prophecy, 2012)
@@ -614,30 +1024,249 @@
 Les Rebelles de Pantala, Gallimard Jeunesse, 2020 ((en) The Hive Queen, 2018)
 Le Souffle du mal, Gallimard Jeunesse, 2021 ((en) The Poison Jungle, 2019)
 Le Trésor interdit, Gallimard Jeunesse, 2022 ((en) The Dangerous Gift, 2021)
-Les Flammes de l'espoir, Gallimard Jeunesse, 2023 ((en) The Flames of Hope, 2022)
-Légendes
-Spectral, Gallimard Jeunesse, 2022 ((en) Darkstalker, 2016)
-Tueurs de dragons, Gallimard Jeunesse, 2024 ((en) Dragonslayer, 2020)
-Bande dessinées Les Royaumes de feu
-La Prophétie, Gallimard Jeunesse, 2019 ((en) The Dragonet Prophecy, 2018)
+Les Flammes de l'espoir, Gallimard Jeunesse, 2023 ((en) The Flames of Hope, 2022)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Univers Les Royaumes de feu</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Légendes</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Spectral, Gallimard Jeunesse, 2022 ((en) Darkstalker, 2016)
+Tueurs de dragons, Gallimard Jeunesse, 2024 ((en) Dragonslayer, 2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Univers Les Royaumes de feu</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Bande dessinées Les Royaumes de feu</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>La Prophétie, Gallimard Jeunesse, 2019 ((en) The Dragonet Prophecy, 2018)
 La Princesse disparue, Gallimard Jeunesse, 2019 ((en) The Lost Heir, 2019)
 Au cœur de la jungle, Gallimard Jeunesse, 2020 ((en) The Hidden Kingdom, 2019)
 L'Île au secret, Gallimard Jeunesse, 2021 ((en) The Dark Secret, 2020)
 La Nuit-la-plus-claire, Gallimard Jeunesse, 2022 ((en) The Brightest Night, 2021)
-La Montagne de Jade, Gallimard Jeunesse, 2023 ((en) Moon Rising, 2022)
-Univers Animal Tatoo
-Série Animal Tatoo
-Chaque volume de cette série est écrit par un écrivain différent. Les auteurs des autres volumes sont : Brandon Mull (tome 1), Maggie Stiefvater (tome 2), Garth Nix et Sean Williams (tome 3), Shannon Hale (tome 4), Eliot Schrefer (tome 6) et Marie Lu (tome 7).
- Trahisons, Bayard, 2016 ((en) Against the Tide, 2014)
-Hors-séries
-Le Livre de Shane, Bayard, 2020 ((en) The Book of Shane, 2014)Coécrit avec Nick Eliopulos.
-Série SOS créatures fantastiques
-Cette série est coécrite avec Kari H. Sutherland.
+La Montagne de Jade, Gallimard Jeunesse, 2023 ((en) Moon Rising, 2022)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Univers Animal Tatoo</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Série Animal Tatoo</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Chaque volume de cette série est écrit par un écrivain différent. Les auteurs des autres volumes sont : Brandon Mull (tome 1), Maggie Stiefvater (tome 2), Garth Nix et Sean Williams (tome 3), Shannon Hale (tome 4), Eliot Schrefer (tome 6) et Marie Lu (tome 7).
+ Trahisons, Bayard, 2016 ((en) Against the Tide, 2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Univers Animal Tatoo</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hors-séries</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Le Livre de Shane, Bayard, 2020 ((en) The Book of Shane, 2014)Coécrit avec Nick Eliopulos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Série SOS créatures fantastiques</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Cette série est coécrite avec Kari H. Sutherland.
 Le Secret des petits griffons, Gallimard Jeunesse, 2019 ((en) The Menagerie, 2013)
 Le Procès du dragon, Gallimard Jeunesse, 2020 ((en) Dragon on Trial, 2014)
-Le Mystère du kraken, Gallimard Jeunesse, 2020 ((en) Krakens and Lies, 2015)
-Romans indépendants
-(en) Jewel Sticker Stories: Stories of the Stars, 2000
+Le Mystère du kraken, Gallimard Jeunesse, 2020 ((en) Krakens and Lies, 2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tui_Sutherland</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(en) Jewel Sticker Stories: Stories of the Stars, 2000
 (en) Kermit's Mixed-Up Valentines, 2001Coécrit avec Emily Sollinger.
 (en) Hide and Go Peep!, 2001
 (en) Who Was Harry Houdini?, 2002
